--- a/Proyecto/datos_balanceados.xlsx
+++ b/Proyecto/datos_balanceados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas\Desktop\Andes\Noveno Semestre\Simu\simu\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6894A0B5-9143-4FDF-865A-811C112626CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE42C60D-08B0-48B1-96ED-484816DE3114}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F5441A3-D593-4390-8838-C65EF13B6B13}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{9F5441A3-D593-4390-8838-C65EF13B6B13}"/>
   </bookViews>
   <sheets>
     <sheet name="MLprimero" sheetId="2" r:id="rId1"/>
@@ -530,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790F968D-5B4A-40EB-8845-DB8D9A391732}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD63A34-79E9-4ABB-A112-EEE75E3C9C7E}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
@@ -1010,13 +1010,13 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>0.52859143518518525</v>
+        <v>0.52944502314814823</v>
       </c>
       <c r="C22" s="1">
-        <v>0.2</v>
+        <v>73.75</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>0.52944502314814823</v>
+        <v>0.52968298611111109</v>
       </c>
       <c r="C23" s="1">
-        <v>73.75</v>
+        <v>20.56</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
@@ -1040,13 +1040,13 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>0.52968298611111109</v>
+        <v>0.530802199074074</v>
       </c>
       <c r="C24" s="1">
-        <v>20.56</v>
+        <v>96.7</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
@@ -1055,13 +1055,13 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>0.530802199074074</v>
+        <v>0.53171701388888892</v>
       </c>
       <c r="C25" s="1">
-        <v>96.7</v>
+        <v>79.039999999999992</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
@@ -1070,13 +1070,13 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>0.53171701388888892</v>
+        <v>0.53250300925925931</v>
       </c>
       <c r="C26" s="1">
-        <v>79.039999999999992</v>
+        <v>67.91</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="11"/>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>0.53250300925925931</v>
+        <v>0.53321851851851854</v>
       </c>
       <c r="C27" s="1">
-        <v>67.91</v>
+        <v>61.82</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="11"/>
@@ -1100,13 +1100,13 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>0.53321851851851854</v>
+        <v>0.53505474537037045</v>
       </c>
       <c r="C28" s="1">
-        <v>61.82</v>
+        <v>158.65</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="11"/>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>0.53505474537037045</v>
+        <v>0.53514814814814815</v>
       </c>
       <c r="C29" s="1">
-        <v>158.65</v>
+        <v>8.07</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="11"/>
@@ -1130,13 +1130,13 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>0.53514814814814815</v>
+        <v>0.5359976851851852</v>
       </c>
       <c r="C30" s="1">
-        <v>8.07</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="11"/>
@@ -1145,13 +1145,13 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>0.5359976851851852</v>
+        <v>0.53601319444444451</v>
       </c>
       <c r="C31" s="1">
-        <v>73.400000000000006</v>
+        <v>1.34</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="11"/>
@@ -1160,13 +1160,13 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>0.53601319444444451</v>
+        <v>0.53605185185185178</v>
       </c>
       <c r="C32" s="1">
-        <v>1.34</v>
+        <v>3.34</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
@@ -1175,13 +1175,13 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>0.53605185185185178</v>
+        <v>0.53761388888888884</v>
       </c>
       <c r="C33" s="1">
-        <v>3.34</v>
+        <v>134.96</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
@@ -1190,13 +1190,13 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>0.53761388888888884</v>
+        <v>0.53765543981481478</v>
       </c>
       <c r="C34" s="1">
-        <v>134.96</v>
+        <v>3.59</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
@@ -1205,13 +1205,13 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>0.53765543981481478</v>
+        <v>0.53816493055555548</v>
       </c>
       <c r="C35" s="1">
-        <v>3.59</v>
+        <v>44.02</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="11"/>
@@ -1220,13 +1220,13 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>0.53816493055555548</v>
+        <v>0.53877372685185188</v>
       </c>
       <c r="C36" s="1">
-        <v>44.02</v>
+        <v>52.6</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="11"/>
@@ -1235,13 +1235,13 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>0.53877372685185188</v>
+        <v>0.53878287037037031</v>
       </c>
       <c r="C37" s="1">
-        <v>52.6</v>
+        <v>0.79</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="11"/>
@@ -1250,13 +1250,13 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>0.53878287037037031</v>
+        <v>0.54207557870370371</v>
       </c>
       <c r="C38" s="1">
-        <v>0.79</v>
+        <v>284.49</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="11"/>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>0.54207557870370371</v>
+        <v>0.54208657407407401</v>
       </c>
       <c r="C39" s="1">
-        <v>284.49</v>
+        <v>0.95</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="11"/>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>0.54208657407407401</v>
+        <v>0.54231192129629635</v>
       </c>
       <c r="C40" s="1">
-        <v>0.95</v>
+        <v>19.47</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="11"/>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>0.54231192129629635</v>
+        <v>0.54328680555555564</v>
       </c>
       <c r="C41" s="1">
-        <v>19.47</v>
+        <v>84.23</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="11"/>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>0.54328680555555564</v>
+        <v>0.54356527777777774</v>
       </c>
       <c r="C42" s="1">
-        <v>84.23</v>
+        <v>24.06</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="11"/>
@@ -1325,13 +1325,13 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>0.54356527777777774</v>
+        <v>0.5438412037037037</v>
       </c>
       <c r="C43" s="1">
-        <v>24.06</v>
+        <v>23.84</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="11"/>
@@ -1340,13 +1340,13 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>0.5438412037037037</v>
+        <v>0.54386192129629629</v>
       </c>
       <c r="C44" s="1">
-        <v>23.84</v>
+        <v>1.79</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="11"/>
@@ -1355,13 +1355,13 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.54386192129629629</v>
+        <v>0.54387152777777781</v>
       </c>
       <c r="C45" s="1">
-        <v>1.79</v>
+        <v>0.83</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="11"/>
@@ -1370,13 +1370,13 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.54387152777777781</v>
+        <v>0.54404490740740741</v>
       </c>
       <c r="C46" s="1">
-        <v>0.83</v>
+        <v>14.98</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="11"/>
@@ -1385,13 +1385,13 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.54404490740740741</v>
+        <v>0.54405011574074069</v>
       </c>
       <c r="C47" s="1">
-        <v>14.98</v>
+        <v>0.45</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="11"/>
@@ -1400,13 +1400,13 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.54405011574074069</v>
+        <v>0.54630925925925933</v>
       </c>
       <c r="C48" s="1">
-        <v>0.45</v>
+        <v>195.19</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="11"/>
@@ -1415,13 +1415,13 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.54630925925925933</v>
+        <v>0.54844120370370375</v>
       </c>
       <c r="C49" s="1">
-        <v>195.19</v>
+        <v>184.2</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="11"/>
@@ -1430,13 +1430,13 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.54844120370370375</v>
+        <v>0.54845914351851854</v>
       </c>
       <c r="C50" s="1">
-        <v>184.2</v>
+        <v>1.55</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="11"/>
@@ -1445,13 +1445,13 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.54845914351851854</v>
+        <v>0.54846932870370368</v>
       </c>
       <c r="C51" s="1">
-        <v>1.55</v>
+        <v>0.88</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="11"/>
@@ -1459,15 +1459,6 @@
       <c r="K51" s="10"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2">
-        <v>0.54846932870370368</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.88</v>
-      </c>
       <c r="G52" s="10"/>
       <c r="H52" s="11"/>
       <c r="J52" s="12"/>
